--- a/Send it later/Tasks.xlsx
+++ b/Send it later/Tasks.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15195" windowHeight="4230"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Important rating" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Refactor the adapters</t>
   </si>
@@ -27,12 +27,6 @@
     <t>refactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Fix bug: </t>
-  </si>
-  <si>
-    <t>Important</t>
-  </si>
-  <si>
     <t>Main features, must do</t>
   </si>
   <si>
@@ -43,13 +37,46 @@
   </si>
   <si>
     <t>Very nice to have</t>
+  </si>
+  <si>
+    <t>Fix bug: send at same time</t>
+  </si>
+  <si>
+    <t>Add Edit button to frames</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Add frame animation</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Imp.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +84,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,11 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,19 +423,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:C5"/>
+  <dimension ref="A3:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3">
+    <row r="3" spans="1:5">
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -399,10 +453,44 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
         <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -412,51 +500,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:C8"/>
+  <dimension ref="A4:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -464,6 +594,7 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Send it later/Tasks.xlsx
+++ b/Send it later/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Refactor the adapters</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>Imp.</t>
+  </si>
+  <si>
+    <t>Main frames</t>
+  </si>
+  <si>
+    <t>Database / EditMessage</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Only thread for db access</t>
+  </si>
+  <si>
+    <t>Database</t>
   </si>
 </sst>
 </file>
@@ -125,10 +143,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,35 +441,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:5">
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -460,40 +522,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" s="3" customFormat="1">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E14">
+    <sortCondition ref="E2:E14"/>
+    <sortCondition ref="D2:D14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -503,7 +568,7 @@
   <dimension ref="A4:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Send it later/Tasks.xlsx
+++ b/Send it later/Tasks.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="Important rating" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Resolutions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Refactor the adapters</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Database</t>
+  </si>
+  <si>
+    <t>Bug: Late 1 min</t>
   </si>
 </sst>
 </file>
@@ -140,12 +143,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -464,25 +467,25 @@
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -490,13 +493,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -507,13 +510,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -522,42 +525,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:5" s="2" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:5" s="2" customFormat="1">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:E14">
-    <sortCondition ref="E2:E14"/>
-    <sortCondition ref="D2:D14"/>
+  <sortState ref="A2:E7">
+    <sortCondition ref="E2:E7"/>
+    <sortCondition ref="D2:D7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -578,11 +595,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">

--- a/Send it later/Tasks.xlsx
+++ b/Send it later/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Refactor the adapters</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Bug: Late 1 min</t>
+  </si>
+  <si>
+    <t>Cache db</t>
+  </si>
+  <si>
+    <t>improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +133,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -150,6 +165,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,17 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -474,20 +491,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -570,6 +587,29 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
   <sortState ref="A2:E7">
@@ -582,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:D15"/>
+  <dimension ref="A4:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,6 +709,14 @@
       </c>
       <c r="D15" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Send it later/Tasks.xlsx
+++ b/Send it later/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Refactor the adapters</t>
   </si>
@@ -99,7 +99,25 @@
     <t>improvement</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">On Click contacts list : ask before delete </t>
+  </si>
+  <si>
+    <t>EditMessage</t>
+  </si>
+  <si>
+    <t>Refactor the SentItem &amp; PendingItem : to MessageItem</t>
+  </si>
+  <si>
+    <t>Refactor SentAdapter &amp; PendingAdapter</t>
+  </si>
+  <si>
+    <t>IMessageList Is a interface - better than Common Super class</t>
+  </si>
+  <si>
+    <t>Wording: max_sent_item</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -155,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -167,6 +185,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -605,12 +624,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1"/>
+    <row r="12" spans="1:5" s="6" customFormat="1"/>
+    <row r="13" spans="1:5" s="6" customFormat="1"/>
+    <row r="14" spans="1:5" s="6" customFormat="1"/>
+    <row r="15" spans="1:5" s="6" customFormat="1"/>
+    <row r="16" spans="1:5" s="6" customFormat="1"/>
+    <row r="17" s="6" customFormat="1"/>
+    <row r="18" s="6" customFormat="1"/>
+    <row r="19" s="6" customFormat="1"/>
+    <row r="20" s="6" customFormat="1"/>
+    <row r="21" s="6" customFormat="1"/>
+    <row r="22" s="6" customFormat="1"/>
+    <row r="23" s="6" customFormat="1"/>
   </sheetData>
   <sortState ref="A2:E7">
     <sortCondition ref="E2:E7"/>
@@ -730,12 +790,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="6" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Send it later/Tasks.xlsx
+++ b/Send it later/Tasks.xlsx
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,19 +179,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +491,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,47 +520,47 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
         <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -561,120 +569,121 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" s="5" customFormat="1">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="5" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
-      <c r="A7" s="2" t="s">
+    <row r="10" spans="1:5" s="8" customFormat="1">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="6" customFormat="1">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="6" customFormat="1">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="6" customFormat="1"/>
-    <row r="12" spans="1:5" s="6" customFormat="1"/>
-    <row r="13" spans="1:5" s="6" customFormat="1"/>
-    <row r="14" spans="1:5" s="6" customFormat="1"/>
-    <row r="15" spans="1:5" s="6" customFormat="1"/>
-    <row r="16" spans="1:5" s="6" customFormat="1"/>
-    <row r="17" s="6" customFormat="1"/>
-    <row r="18" s="6" customFormat="1"/>
-    <row r="19" s="6" customFormat="1"/>
-    <row r="20" s="6" customFormat="1"/>
-    <row r="21" s="6" customFormat="1"/>
-    <row r="22" s="6" customFormat="1"/>
-    <row r="23" s="6" customFormat="1"/>
+    <row r="11" spans="1:5" s="5" customFormat="1"/>
+    <row r="12" spans="1:5" s="5" customFormat="1"/>
+    <row r="13" spans="1:5" s="5" customFormat="1"/>
+    <row r="14" spans="1:5" s="5" customFormat="1"/>
+    <row r="15" spans="1:5" s="5" customFormat="1"/>
+    <row r="16" spans="1:5" s="5" customFormat="1"/>
+    <row r="17" s="5" customFormat="1"/>
+    <row r="18" s="5" customFormat="1"/>
+    <row r="19" s="5" customFormat="1"/>
+    <row r="20" s="5" customFormat="1"/>
+    <row r="21" s="5" customFormat="1"/>
+    <row r="22" s="5" customFormat="1"/>
+    <row r="23" s="5" customFormat="1"/>
   </sheetData>
-  <sortState ref="A2:E7">
-    <sortCondition ref="E2:E7"/>
-    <sortCondition ref="D2:D7"/>
+  <sortState ref="A2:E10">
+    <sortCondition ref="E2:E10"/>
+    <sortCondition ref="D2:D10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -695,11 +704,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
@@ -803,8 +812,8 @@
     <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Send it later/Tasks.xlsx
+++ b/Send it later/Tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Refactor the adapters</t>
   </si>
@@ -118,13 +118,47 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>Pusblish trick: rate notes / 5 messages til done</t>
+  </si>
+  <si>
+    <t>marketting</t>
+  </si>
+  <si>
+    <t>Pusblish trick: get rating</t>
+  </si>
+  <si>
+    <t>Count number of successful sent messages : use preference</t>
+  </si>
+  <si>
+    <t>When count % 5 == 0 &amp;&amp; ! notRated (use preference) 
+-&gt; show the rating dialog !</t>
+  </si>
+  <si>
+    <t>Bo onClick show Dialog</t>
+  </si>
+  <si>
+    <t>PendingView</t>
+  </si>
+  <si>
+    <t>Them onClick show Dialog (SentView)</t>
+  </si>
+  <si>
+    <t>SentView</t>
+  </si>
+  <si>
+    <t>#Undone tasks</t>
+  </si>
+  <si>
+    <t>#Done tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +175,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -179,26 +220,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -488,203 +546,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A4:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6">
+        <f>SUM(E7:E107)</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2">
+        <f>COUNT(E7:E107)-SUM(E7:E107)</f>
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="5" customFormat="1">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1"/>
-    <row r="12" spans="1:5" s="5" customFormat="1"/>
-    <row r="13" spans="1:5" s="5" customFormat="1"/>
-    <row r="14" spans="1:5" s="5" customFormat="1"/>
-    <row r="15" spans="1:5" s="5" customFormat="1"/>
-    <row r="16" spans="1:5" s="5" customFormat="1"/>
-    <row r="17" s="5" customFormat="1"/>
-    <row r="18" s="5" customFormat="1"/>
-    <row r="19" s="5" customFormat="1"/>
-    <row r="20" s="5" customFormat="1"/>
-    <row r="21" s="5" customFormat="1"/>
-    <row r="22" s="5" customFormat="1"/>
-    <row r="23" s="5" customFormat="1"/>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:E10">
-    <sortCondition ref="E2:E10"/>
-    <sortCondition ref="D2:D10"/>
+  <sortState ref="A7:E18">
+    <sortCondition ref="E7:E18"/>
+    <sortCondition ref="D7:D18"/>
   </sortState>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -704,11 +830,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
@@ -799,21 +925,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -834,6 +960,27 @@
       </c>
       <c r="B3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
